--- a/public/user.xlsx
+++ b/public/user.xlsx
@@ -15,6 +15,28 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
   <si>
     <r>
       <rPr>
@@ -60,53 +82,31 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工号</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>身份证号码</t>
   </si>
   <si>
     <t>手机号码</t>
   </si>
   <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
     <t>部门名称</t>
   </si>
   <si>
     <t>权限（多个用/隔开）</t>
   </si>
   <si>
-    <t>张三</t>
+    <t>10086</t>
+  </si>
+  <si>
+    <t>刘博文</t>
   </si>
   <si>
     <t>Zc!123456</t>
   </si>
   <si>
-    <t>111222</t>
+    <t>6668881098</t>
   </si>
   <si>
     <t>18507021015</t>
-  </si>
-  <si>
-    <t>3609999123123123</t>
   </si>
   <si>
     <t>生产A班</t>
@@ -120,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,6 +143,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,31 +242,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,9 +256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +265,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,86 +280,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -302,43 +309,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,121 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,15 +500,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,21 +522,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -570,11 +553,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,153 +591,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,16 +1085,16 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="26.0357142857143" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.6607142857143" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.5089285714286" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.4107142857143" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.6160714285714" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.5089285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.0357142857143" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.6607142857143" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.6160714285714" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.4107142857143" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.9017857142857" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.3303571428571" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.14285714285714" style="2"/>
